--- a/biology/Histoire de la zoologie et de la botanique/René_Desfontaines/René_Desfontaines.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/René_Desfontaines/René_Desfontaines.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Desfontaines</t>
+          <t>René_Desfontaines</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">René Louiche Desfontaines, né le 14 février 1750 à Tremblay (Ille-et-Vilaine) et mort le 16 novembre 1833 à Paris, est un botaniste français, directeur du Muséum national d'histoire naturelle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Desfontaines</t>
+          <t>René_Desfontaines</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études de médecine, René Desfontaines étudie l'histoire naturelle sous la direction de Bernard de Jussieu. Il publie divers travaux de botanique qui lui valent d'être admis le 2 mars 1783 à l'Académie royale des sciences. Après la disparition de l'Académie royale des sciences et la création de l'Institut national, il est nommé membre résidant de la 1re classe dans la section de botanique et physique végétale par arrêté du Directoire exécutif, le 29 brumaire an IV. Il en est le président en l'an XIII (1804-1805). Il est membre également de l'Académie de médecine et directeur du Muséum national d'histoire naturelle.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Desfontaines</t>
+          <t>René_Desfontaines</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,8 +558,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Botanique et vulgarisation scientifique
-Grâce au soutien de Louis Guillaume Le Monnier (1717-1799), il peut entamer une expédition scientifique en Afrique du Nord où il reste deux ans. Il étudie la flore des côtes de Barbarie. Il en rapporte un herbier considérable et de nombreux objets d'histoire naturelle. Il fait le rapport de son voyage dans sa Flora atlantica, en fait Flore de l'Atlas (1798), 2 vol. in-4, avec planches.
+          <t>Botanique et vulgarisation scientifique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grâce au soutien de Louis Guillaume Le Monnier (1717-1799), il peut entamer une expédition scientifique en Afrique du Nord où il reste deux ans. Il étudie la flore des côtes de Barbarie. Il en rapporte un herbier considérable et de nombreux objets d'histoire naturelle. Il fait le rapport de son voyage dans sa Flora atlantica, en fait Flore de l'Atlas (1798), 2 vol. in-4, avec planches.
 On lui doit des observations nouvelles sur le dattier, le lotos de Libye, le chêne à glands doux, sur l'irritabilité des plantes. En 1786, Desfontaines succède à Le Monnier à la chaire de botanique du Jardin du Roi où il favorise la physiologie végétale.
 Il fait paraître de nombreux ouvrages de botanique dont :
 un Cours élémentaire (1796)
@@ -554,8 +573,6 @@
 des Expériences sur la fécondation artificielle des plantes (1831).
 Ses cours sont très populaires et rassemblent entre 500 et 600 personnes, dont de nombreuses personnalités. Il est le premier à présenter l'organographie et la physique végétales comme devant être l'introduction nécessaire de la botanique. Il est fait membre étranger de la Royal Society en 1833. Il est membre de la Société de Médecine de Paris.
 Il passe la période troublée de la Révolution sans difficulté et n'hésite pas à intervenir pour sauver des botanistes, comme Louis Ramond (1755-1827) ou Charles Louis L'Héritier de Brutelle (1746-1800). Devenu aveugle à la fin de sa vie, il se fait conduire dans les serres du Muséum et tente de reconnaître les plantes au toucher.
-Ornithologie
-On lui doit la description du Bulbul des jardins [1], du Cratérope fauve[2] en 1789.
 </t>
         </is>
       </c>
@@ -566,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Desfontaines</t>
+          <t>René_Desfontaines</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,10 +598,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Travaux</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ornithologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On lui doit la description du Bulbul des jardins , du Cratérope fauve en 1789.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Desfontaines</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Desfontaines</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(la) Flora atlantica, sive Historia plantarum, quae in Atlante, agro tunetano et algeriensi crescunt, Blanchon (Parisiis), 1800 :
 Tomus 1  lire en ligne sur Gallica et planches lire en ligne sur Gallica
@@ -604,31 +660,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ren%C3%A9_Desfontaines</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>René_Desfontaines</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Desfontaines</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est en son honneur que Hipólito Ruiz López (1754-1815) &amp; José Antonio Pavón (1754-1844) ont nommé le genre Desfontainia. De même, Jacques-Julien Houtou de La Billardière lui dédie le genre Fontanesia de la famille des Oléacées.
 Un buste en sa mémoire a été érigé dans sa commune natale en 1937.
